--- a/z0bug_odoo/z0bug_odoo/data/date_range_type.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/date_range_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t xml:space="preserve">trimestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.dr_eu_uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.dr_eu_de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.dr_eu_fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA FR</t>
   </si>
 </sst>
 </file>
@@ -70,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,20 +170,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,6 +254,57 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
